--- a/Manuscript/GIS2015Results/Charts/Links.xlsx
+++ b/Manuscript/GIS2015Results/Charts/Links.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\git\RoadNetworks\Manuscript\GIS2015Results\Charts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="14310"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="14310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Historic" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t xml:space="preserve">  5 Min</t>
   </si>
@@ -82,8 +87,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,12 +126,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -145,11 +168,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -226,6 +252,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -303,16 +330,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="94030464"/>
-        <c:axId val="111641728"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="305556576"/>
+        <c:axId val="305554224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94030464"/>
+        <c:axId val="305556576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -331,26 +368,33 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111641728"/>
+        <c:crossAx val="305554224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111641728"/>
+        <c:axId val="305554224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94030464"/>
+        <c:crossAx val="305556576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -358,8 +402,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -371,8 +418,17 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -389,6 +445,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -463,6 +520,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -538,6 +596,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -613,16 +672,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="113204608"/>
-        <c:axId val="113223168"/>
+        <c:smooth val="0"/>
+        <c:axId val="307134312"/>
+        <c:axId val="307140584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113204608"/>
+        <c:axId val="307134312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -645,10 +715,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -660,18 +731,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113223168"/>
+        <c:crossAx val="307140584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113223168"/>
+        <c:axId val="307140584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -690,9 +763,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -704,7 +779,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113204608"/>
+        <c:crossAx val="307134312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -721,6 +796,7 @@
           <c:h val="0.14467009332166814"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -733,6 +809,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -744,7 +822,17 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -762,12 +850,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -844,6 +934,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -921,6 +1012,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -998,16 +1090,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="113649152"/>
-        <c:axId val="113651072"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="307141760"/>
+        <c:axId val="307134704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113649152"/>
+        <c:axId val="307141760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1030,35 +1132,43 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113651072"/>
+        <c:crossAx val="307134704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113651072"/>
+        <c:axId val="307134704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113649152"/>
+        <c:crossAx val="307141760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1070,13 +1180,25 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1091,6 +1213,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'[1]Historic (r)'!$B$20:$G$20</c:f>
@@ -1159,6 +1282,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'[1]Historic (r)'!$B$20:$G$20</c:f>
@@ -1213,32 +1337,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="111666688"/>
-        <c:axId val="111668224"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="303111216"/>
+        <c:axId val="306982912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111666688"/>
+        <c:axId val="303111216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111668224"/>
+        <c:crossAx val="306982912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111668224"/>
+        <c:axId val="306982912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111666688"/>
+        <c:crossAx val="303111216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1246,8 +1387,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1259,7 +1403,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1277,6 +1431,7 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1298,6 +1453,7 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'[1]Historic (r)'!$B$20:$G$20</c:f>
@@ -1374,6 +1530,7 @@
               </a:schemeClr>
             </a:solidFill>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'[1]Historic (r)'!$B$20:$G$20</c:f>
@@ -1428,14 +1585,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="112845184"/>
-        <c:axId val="112847104"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="306987616"/>
+        <c:axId val="306983696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112845184"/>
+        <c:axId val="306987616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1454,8 +1621,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1467,17 +1637,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112847104"/>
+        <c:crossAx val="306983696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112847104"/>
+        <c:axId val="306983696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1497,8 +1669,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1510,7 +1685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112845184"/>
+        <c:crossAx val="306987616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1527,6 +1702,7 @@
           <c:h val="8.8637496262334428E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1539,6 +1715,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1550,8 +1728,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1568,6 +1755,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1641,6 +1829,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1715,17 +1904,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="80250368"/>
-        <c:axId val="80252288"/>
+        <c:smooth val="0"/>
+        <c:axId val="306980560"/>
+        <c:axId val="306984480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80250368"/>
+        <c:axId val="306980560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1743,9 +1942,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1757,19 +1958,21 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80252288"/>
+        <c:crossAx val="306984480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80252288"/>
+        <c:axId val="306984480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1788,9 +1991,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1802,7 +2007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80250368"/>
+        <c:crossAx val="306980560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1819,6 +2024,7 @@
           <c:h val="0.32021216097987754"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1841,6 +2047,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1852,7 +2060,17 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1871,11 +2089,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1941,6 +2162,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2007,6 +2229,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2073,6 +2296,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2139,6 +2363,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2205,6 +2430,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2271,6 +2497,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2337,16 +2564,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="112880640"/>
-        <c:axId val="112891008"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="306982128"/>
+        <c:axId val="306982520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112880640"/>
+        <c:axId val="306982128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2370,9 +2607,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2384,20 +2623,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112891008"/>
+        <c:crossAx val="306982520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112891008"/>
+        <c:axId val="306982520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2409,7 +2652,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112880640"/>
+        <c:crossAx val="306982128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2426,6 +2669,7 @@
           <c:h val="0.68761482939632568"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2438,6 +2682,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2449,8 +2695,17 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2467,6 +2722,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2481,6 +2737,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Filtered (r)'!$B$20:$F$20</c:f>
@@ -2529,6 +2816,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2544,6 +2832,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Filtered (r)'!$B$20:$F$20</c:f>
@@ -2592,6 +2911,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2607,6 +2927,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Filtered (r)'!$B$20:$F$20</c:f>
@@ -2655,6 +3006,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2670,6 +3022,35 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Filtered (r)'!$B$20:$F$20</c:f>
@@ -2718,6 +3099,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2733,6 +3115,35 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Filtered (r)'!$B$20:$F$20</c:f>
@@ -2781,6 +3192,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2796,6 +3208,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Filtered (r)'!$B$20:$F$20</c:f>
@@ -2844,6 +3287,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2859,6 +3303,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Filtered (r)'!$B$20:$F$20</c:f>
@@ -2907,69 +3382,163 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="112969216"/>
-        <c:axId val="112971136"/>
+        <c:smooth val="0"/>
+        <c:axId val="306985264"/>
+        <c:axId val="306986048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112969216"/>
+        <c:axId val="306985264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800"/>
-                  <a:t>Similarity Threshold</a:t>
+                  <a:rPr lang="el-GR" sz="1800">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>λ</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112971136"/>
+        <c:crossAx val="306986048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112971136"/>
+        <c:axId val="306986048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800"/>
@@ -2979,23 +3548,81 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1"/>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="112969216"/>
+        <c:crossAx val="306985264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -3009,6 +3636,7 @@
           <c:h val="0.23416848935549744"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -3018,20 +3646,57 @@
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="1"/>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
@@ -3042,7 +3707,17 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3061,11 +3736,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3125,6 +3803,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3185,6 +3864,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3245,6 +3925,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3305,6 +3986,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3365,6 +4047,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3425,6 +4108,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -3485,16 +4169,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="113144192"/>
-        <c:axId val="113146112"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="306986832"/>
+        <c:axId val="307138624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113144192"/>
+        <c:axId val="306986832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3513,9 +4207,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3527,20 +4223,24 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113146112"/>
+        <c:crossAx val="307138624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113146112"/>
+        <c:axId val="307138624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3552,7 +4252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113144192"/>
+        <c:crossAx val="306986832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3569,6 +4269,7 @@
           <c:h val="0.66446668124817765"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3581,6 +4282,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3592,8 +4295,17 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:style val="1"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -3610,6 +4322,7 @@
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3624,6 +4337,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Inerplolate (r)'!$B$19:$E$19</c:f>
@@ -3666,6 +4410,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3681,6 +4426,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Inerplolate (r)'!$B$19:$E$19</c:f>
@@ -3723,6 +4499,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3738,6 +4515,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Inerplolate (r)'!$B$19:$E$19</c:f>
@@ -3780,6 +4588,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3795,6 +4604,35 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Inerplolate (r)'!$B$19:$E$19</c:f>
@@ -3837,6 +4675,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3852,6 +4691,35 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Inerplolate (r)'!$B$19:$E$19</c:f>
@@ -3894,6 +4762,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3909,6 +4778,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Inerplolate (r)'!$B$19:$E$19</c:f>
@@ -3951,6 +4851,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -3966,6 +4867,37 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>'[1]Inerplolate (r)'!$B$19:$E$19</c:f>
@@ -4008,69 +4940,163 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="113072768"/>
-        <c:axId val="113083136"/>
+        <c:smooth val="0"/>
+        <c:axId val="307140976"/>
+        <c:axId val="307140192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113072768"/>
+        <c:axId val="307140976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800"/>
-                  <a:t>Theta</a:t>
+                  <a:rPr lang="el-GR" sz="1800">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>θ</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113083136"/>
+        <c:crossAx val="307140192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113083136"/>
+        <c:axId val="307140192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800"/>
@@ -4080,23 +5106,81 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113072768"/>
+        <c:crossAx val="307140976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -4110,6 +5194,7 @@
           <c:h val="0.25731663750364564"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -4119,20 +5204,57 @@
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="1"/>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
@@ -4143,7 +5265,17 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -4152,15 +5284,16 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22162029746281714"/>
+          <c:x val="0.19662029746281715"/>
           <c:y val="6.2708151064450282E-2"/>
-          <c:w val="0.74782414698162725"/>
-          <c:h val="0.65463764946048475"/>
+          <c:w val="0.77282414698162727"/>
+          <c:h val="0.67778579760863222"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4177,33 +5310,37 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'[1]Inerplolate (r)'!$B$30:$F$30</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Interpolate!$B$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>15 Min</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30 Min</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60 Min</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90 Min</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120 Min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -4230,28 +5367,63 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="113103232"/>
-        <c:axId val="113105152"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="307141368"/>
+        <c:axId val="307135096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113103232"/>
+        <c:axId val="307141368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1800"/>
+                <a:pPr algn="ctr">
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800"/>
-                  <a:t>Time Horizon</a:t>
+                  <a:rPr lang="el-GR" sz="1800">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>τ</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>(minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4259,44 +5431,117 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.44951137357830284"/>
-              <c:y val="0.86122666958296856"/>
+              <c:x val="0.46895581802274716"/>
+              <c:y val="0.86122666958296878"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113105152"/>
+        <c:crossAx val="307135096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113105152"/>
+        <c:axId val="307135096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1800"/>
+                  <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1800"/>
@@ -4306,32 +5551,1559 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1"/>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="113103232"/>
+        <c:crossAx val="307141368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="101">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="85000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="25000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="101">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="85000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="25000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="102">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="95000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="dk1">
+        <a:tint val="5000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4685,7 +7457,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Historic"/>
@@ -5722,7 +8494,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5754,9 +8526,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5788,6 +8561,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5963,16 +8737,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -5995,7 +8769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -6021,7 +8795,7 @@
         <v>17.661615191313402</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -6047,7 +8821,7 @@
         <v>16.226888788752994</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
@@ -6067,7 +8841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -6090,7 +8864,7 @@
         <v>3.2676025205325914</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -6120,16 +8894,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0.01</v>
       </c>
@@ -6146,7 +8920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -6166,7 +8940,7 @@
         <v>14.587232807444588</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -6186,7 +8960,7 @@
         <v>14.891209209605096</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -6206,7 +8980,7 @@
         <v>15.19158710740394</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -6226,7 +9000,7 @@
         <v>15.844146867926476</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -6246,7 +9020,7 @@
         <v>16.553154646437726</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -6266,7 +9040,7 @@
         <v>17.102975647329355</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -6286,7 +9060,7 @@
         <v>17.423688990423447</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0.01</v>
       </c>
@@ -6303,7 +9077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -6323,7 +9097,7 @@
         <v>14.522058542328288</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -6343,7 +9117,7 @@
         <v>14.632894989366875</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -6363,7 +9137,7 @@
         <v>14.766660517935536</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -6383,7 +9157,7 @@
         <v>15.072830906961691</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -6403,7 +9177,7 @@
         <v>15.489119923864513</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -6423,7 +9197,7 @@
         <v>15.864944596792084</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -6450,16 +9224,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y40" sqref="Y40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -6473,7 +9247,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -6490,7 +9264,7 @@
         <v>9.0035885661840442</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -6507,7 +9281,7 @@
         <v>10.909961417435829</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -6524,7 +9298,7 @@
         <v>12.542008994331432</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -6541,7 +9315,7 @@
         <v>15.829922055413904</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -6558,7 +9332,7 @@
         <v>20.430863739445549</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -6575,7 +9349,7 @@
         <v>23.428961738889964</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -6592,7 +9366,7 @@
         <v>25.907760979359228</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0</v>
       </c>
@@ -6606,7 +9380,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -6623,7 +9397,7 @@
         <v>9.1578273226650744</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -6640,7 +9414,7 @@
         <v>11.085133334750166</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -6657,7 +9431,7 @@
         <v>12.735565116591353</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -6674,7 +9448,7 @@
         <v>16.0654013380679</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -6691,7 +9465,7 @@
         <v>20.722547850142412</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -6708,7 +9482,7 @@
         <v>23.753788113603839</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -6725,24 +9499,24 @@
         <v>26.267675943355712</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" t="s">
-        <v>6</v>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>60</v>
+      </c>
+      <c r="E30">
+        <v>90</v>
+      </c>
+      <c r="F30">
+        <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -6762,7 +9536,7 @@
         <v>13.829318039955798</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -6789,19 +9563,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -6824,7 +9598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -6850,7 +9624,7 @@
         <v>17.661615191313402</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -6876,7 +9650,7 @@
         <v>16.620333408412481</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -6902,7 +9676,7 @@
         <v>17.682609312769152</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>5</v>
       </c>
@@ -6925,7 +9699,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -6951,7 +9725,7 @@
         <v>16.226888788752994</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -6977,7 +9751,7 @@
         <v>15.386435363014202</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
